--- a/docss/trend/poland/E_ataxy.xlsx
+++ b/docss/trend/poland/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\poland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:D16"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1720,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>1.4635960571467876E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>6.4548605587333441E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>1.0178741766139865E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="9">
-        <v>4.5667281374335289E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4" s="9">
-        <v>5.19991060718894E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>2.4515159893780947E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>2.554366597905755E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>1.5438985312357545E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>1.526769669726491E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9">
-        <v>2.2334754932671785E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C8" s="9">
-        <v>4.9878833815455437E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D8" s="9">
-        <v>4.5261126942932606E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>9.8972099367529154E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -1832,10 +1832,10 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>8.509043138474226E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C10" s="9">
-        <v>5.2332454361021519E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>1.5628901775926352E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C11" s="9">
-        <v>4.5609897933900356E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>2.9749352019280195E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C12" s="9">
-        <v>1.495477044954896E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>6.0660946182906628E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9">
-        <v>1.1897046118974686E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C13" s="9">
-        <v>5.0024902448058128E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>2.1276844665408134E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
